--- a/USNews/USNews格式参考(1).xlsx
+++ b/USNews/USNews格式参考(1).xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsener\Documents\WeChat Files\wxid_6cr3holsj4r521\FileStorage\File\2020-10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Arsener\PycharmProjects\Just_Scrapy\USNews\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338C90A1-8096-4252-BE99-452F8314B469}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE2D957-70EC-41F2-8C40-05F3968F05C5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2385" yWindow="2295" windowWidth="23760" windowHeight="11805" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -509,10 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>profile/overall_rank</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>profile/overall_score</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -561,7 +557,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>subjects(subject_name, subject_rank)</t>
+    <t>subjects(subject_name, subject_rank，is_tied)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>profile/overall_rank+is_tied_global</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:DD3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CK1" workbookViewId="0">
-      <selection activeCell="DB2" sqref="DB2"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1462,10 +1462,10 @@
         <v>141</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>142</v>
@@ -1501,7 +1501,7 @@
         <v>152</v>
       </c>
       <c r="R3" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="S3" s="4" t="s">
         <v>153</v>
@@ -1510,40 +1510,40 @@
         <v>154</v>
       </c>
       <c r="U3" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="V3" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="V3" s="4" t="s">
+      <c r="W3" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="X3" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="X3" s="4" t="s">
+      <c r="Y3" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="Z3" s="4" t="s">
+      <c r="AA3" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="AA3" s="4" t="s">
+      <c r="AB3" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="AB3" s="4" t="s">
+      <c r="AC3" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="AC3" s="4" t="s">
+      <c r="AD3" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="AD3" s="4" t="s">
+      <c r="AE3" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="AE3" s="4" t="s">
+      <c r="AF3" s="6" t="s">
         <v>167</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>168</v>
       </c>
       <c r="AG3" s="7"/>
       <c r="AH3" s="7"/>
